--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3865.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3865.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jade Winston Dernbach</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>28/06/2011</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3300</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3302</t>
+          <t>3302</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>03/07/2011</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3303</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>06/07/2011</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3304</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3305</t>
+          <t>3305</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>25/08/2011</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3321</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -788,7 +849,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>03/09/2011</t>
@@ -796,7 +856,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3322</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -836,7 +896,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>06/09/2011</t>
@@ -844,7 +903,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3323</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -884,7 +943,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>09/09/2011</t>
@@ -892,7 +950,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3325</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -932,7 +990,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>16/09/2011</t>
@@ -940,7 +997,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3331</t>
+          <t>3331</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -992,7 +1049,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3335</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1044,7 +1101,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3337</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1084,7 +1141,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>20/10/2011</t>
@@ -1092,7 +1148,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3341</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1132,7 +1188,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>21/02/2012</t>
@@ -1140,7 +1195,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3383</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1180,7 +1235,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>01/07/2012</t>
@@ -1188,7 +1242,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3418</t>
+          <t>3418</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1228,7 +1282,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>31/08/2012</t>
@@ -1236,7 +1289,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3440</t>
+          <t>3440</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1276,7 +1329,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>02/09/2012</t>
@@ -1284,7 +1336,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3442</t>
+          <t>3442</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1336,7 +1388,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3444</t>
+          <t>3444</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1376,7 +1428,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>11/01/2013</t>
@@ -1384,7 +1435,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1436,7 +1487,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1488,7 +1539,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1528,7 +1579,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>23/01/2013</t>
@@ -1536,7 +1586,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1576,7 +1626,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>31/05/2013</t>
@@ -1584,7 +1633,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1636,7 +1685,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1675,7 +1724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1697,7 +1746,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1734,7 +1783,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3300</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1771,7 +1820,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3302</t>
+          <t>3302</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1808,7 +1857,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3303</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1845,7 +1894,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3304</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1882,7 +1931,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3305</t>
+          <t>3305</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1919,7 +1968,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3321</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1956,7 +2005,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3322</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1993,7 +2042,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3323</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2030,7 +2079,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3325</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2067,7 +2116,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3331</t>
+          <t>3331</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2104,7 +2153,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3335</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2141,7 +2190,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3337</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2178,7 +2227,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3341</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2215,7 +2264,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3383</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2252,7 +2301,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3418</t>
+          <t>3418</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2289,7 +2338,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3440</t>
+          <t>3440</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2326,7 +2375,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3442</t>
+          <t>3442</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2363,7 +2412,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3444</t>
+          <t>3444</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2400,7 +2449,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2437,7 +2486,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2474,7 +2523,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2511,7 +2560,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2548,7 +2597,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2585,7 +2634,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2613,6 +2662,411 @@
           <t>0/87</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3305</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3322</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3325</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3331</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3335</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3337</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3341</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3383</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.10%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3418</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3440</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3442</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3444</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3459</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3463</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3501</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3503</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3865.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3865.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2750,15 +2751,317 @@
           <t>3321</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3322</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3325</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3331</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3335</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3337</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3341</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3383</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.10%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3418</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3440</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3442</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3444</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3459</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3463</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3501</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3503</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3305</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2766,13 +3069,14 @@
           <t>3322</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2784,13 +3088,6 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2798,27 +3095,14 @@
           <t>3325</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>11</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.27%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2830,13 +3114,6 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2844,13 +3121,14 @@
           <t>3335</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2860,17 +3138,12 @@
           <t>3337</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2880,13 +3153,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2894,27 +3160,14 @@
           <t>3383</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>11</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.10%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -2926,13 +3179,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2940,23 +3186,14 @@
           <t>3440</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2966,17 +3203,8 @@
           <t>3442</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>11</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2984,15 +3212,14 @@
           <t>3444</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3004,9 +3231,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3014,11 +3238,16 @@
           <t>3461</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3026,11 +3255,12 @@
           <t>3463</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3038,11 +3268,16 @@
           <t>3468</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3050,11 +3285,16 @@
           <t>3501</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3062,11 +3302,12 @@
           <t>3503</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3865.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3865.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2751,6 +2750,10 @@
           <t>3321</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2763,6 +2766,10 @@
           <t>3322</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2775,6 +2782,10 @@
           <t>3323</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2817,6 +2828,10 @@
           <t>3331</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2829,6 +2844,10 @@
           <t>3335</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2844,6 +2863,9 @@
       <c r="B9" t="n">
         <v>10</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2856,6 +2878,10 @@
           <t>3341</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2898,6 +2924,10 @@
           <t>3418</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2923,6 +2953,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2938,6 +2969,9 @@
       <c r="B14" t="n">
         <v>11</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2953,6 +2987,9 @@
       <c r="B15" t="n">
         <v>11</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2965,6 +3002,11 @@
           <t>3459</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2972,6 +3014,11 @@
           <t>3461</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2979,6 +3026,11 @@
           <t>3463</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2986,6 +3038,11 @@
           <t>3468</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2993,6 +3050,11 @@
           <t>3501</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3000,314 +3062,11 @@
           <t>3503</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3305</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3321</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3322</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3323</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3325</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3331</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3335</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3337</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3341</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3383</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3418</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3440</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3442</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3444</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3459</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3461</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3463</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3468</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3501</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3503</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3865.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3865.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>28/06/2011</t>
@@ -656,6 +656,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>03/07/2011</t>
@@ -703,6 +704,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>06/07/2011</t>
@@ -802,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>25/08/2011</t>
@@ -849,6 +852,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>03/09/2011</t>
@@ -896,6 +900,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>06/09/2011</t>
@@ -943,6 +948,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>09/09/2011</t>
@@ -990,6 +996,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>16/09/2011</t>
@@ -1141,6 +1148,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>20/10/2011</t>
@@ -1188,6 +1196,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>21/02/2012</t>
@@ -1235,6 +1244,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>01/07/2012</t>
@@ -1282,6 +1292,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>31/08/2012</t>
@@ -1329,6 +1340,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>02/09/2012</t>
@@ -1428,6 +1440,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>11/01/2013</t>
@@ -1579,6 +1592,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>23/01/2013</t>
@@ -1626,6 +1640,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>31/05/2013</t>
@@ -2666,409 +2681,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3305</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.12%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3321</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3322</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3323</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3325</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.27%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3331</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3335</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3337</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3341</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3383</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.10%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3418</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3440</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3442</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>11</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3444</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3459</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3461</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3463</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3468</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3501</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3503</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>